--- a/DATA_goal/Junction_Flooding_381.xlsx
+++ b/DATA_goal/Junction_Flooding_381.xlsx
@@ -863,103 +863,103 @@
         <v>44781.72916666666</v>
       </c>
       <c r="B4" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="N4" s="4" t="n">
         <v>0.04</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="O4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.27</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.41</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.34</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.25</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.18</v>
       </c>
       <c r="T4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.27</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.45</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.35</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.27</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44781.73611111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.36</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.28</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.34</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="N5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.34</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="T5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.28</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.32</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.27</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_381.xlsx
+++ b/DATA_goal/Junction_Flooding_381.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.71527777778</v>
+        <v>45062.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>8.821999999999999</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>6.243</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>2.794</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>19.605</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>14.205</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>5.893</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>19.279</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>10.957</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>4.563</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>5.697</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>7.759</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>8.683999999999999</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>2.881</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>7.143</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>9.409000000000001</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>6.779</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>1.556</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>0.752</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>101.319</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>19.6</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>6.594</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>12.192</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>6.907</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>0.798</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>11.548</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>5.824</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>5.505</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>6.107</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>8.566000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>2.095</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>16.882</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>3.332</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>8.242000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.72222222222</v>
+        <v>45062.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0</v>
+        <v>13.243</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0</v>
+        <v>9.782</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>1.532</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0</v>
+        <v>29.249</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0</v>
+        <v>23.143</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0</v>
+        <v>9.823</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0</v>
+        <v>38.059</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0</v>
+        <v>16.205</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0</v>
+        <v>7.239</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0</v>
+        <v>11.68</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0</v>
+        <v>12.609</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0</v>
+        <v>3.695</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0</v>
+        <v>10.527</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0</v>
+        <v>14.654</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0</v>
+        <v>9.276999999999999</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>0.786</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.679</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0</v>
+        <v>152.897</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0</v>
+        <v>29.394</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0</v>
+        <v>9.717000000000001</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0</v>
+        <v>19.332</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0</v>
+        <v>10.314</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0</v>
+        <v>1.333</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0</v>
+        <v>20.027</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0</v>
+        <v>8.583</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0</v>
+        <v>7.766</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0</v>
+        <v>9.028</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0</v>
+        <v>12.427</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>0.973</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0</v>
+        <v>34.826</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0</v>
+        <v>5.281</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0</v>
+        <v>12.148</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.72916666666</v>
+        <v>45062.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.37</v>
+        <v>20.019</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.37</v>
+        <v>14.94</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.36</v>
+        <v>1.372</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.65</v>
+        <v>43.896</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.65</v>
+        <v>35.603</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0</v>
+        <v>15.333</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0.45</v>
+        <v>59.994</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.37</v>
+        <v>24.358</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.35</v>
+        <v>10.983</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.36</v>
+        <v>15.71</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.38</v>
+        <v>17.585</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.23</v>
+        <v>18.78</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.04</v>
+        <v>5.285</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.27</v>
+        <v>15.79</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.41</v>
+        <v>22.306</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.34</v>
+        <v>13.475</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.25</v>
+        <v>0.61</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.18</v>
+        <v>0.794</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0</v>
+        <v>233.028</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.52</v>
+        <v>44.135</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.27</v>
+        <v>14.575</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.45</v>
+        <v>29.502</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.29</v>
+        <v>15.571</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.17</v>
+        <v>2.046</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.35</v>
+        <v>30.192</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.26</v>
+        <v>12.874</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.39</v>
+        <v>11.464</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.38</v>
+        <v>13.435</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.38</v>
+        <v>18.564</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.19</v>
+        <v>0.644</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0.37</v>
+        <v>54.67</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.27</v>
+        <v>8.125999999999999</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.27</v>
+        <v>18.222</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.73611111111</v>
+        <v>45062.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.39</v>
+        <v>0.83</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.36</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.28</v>
+        <v>0.55</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.72</v>
+        <v>2.09</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.7</v>
+        <v>1.22</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>0.76</v>
+        <v>11.42</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.42</v>
+        <v>1.1</v>
       </c>
       <c r="J5" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="R5" s="4" t="n">
         <v>0.34</v>
       </c>
-      <c r="K5" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="P5" s="4" t="n">
+      <c r="S5" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AE5" s="4" t="n">
         <v>0.48</v>
       </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.14</v>
-      </c>
       <c r="AF5" s="4" t="n">
-        <v>0.7</v>
+        <v>11.21</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.74304398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>8.289999999999999</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>23.77</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>19.81</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>26.07</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>13.25</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>8.970000000000001</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>10.05</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>8.57</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>12.27</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>124.71</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>23.64</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>16.12</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>8.52</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>13.64</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>23.18</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>9.880000000000001</v>
+        <v>0.89</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_381.xlsx
+++ b/DATA_goal/Junction_Flooding_381.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
-    <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
-    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45062.50694444445</v>
+        <v>44781.71527777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>8.821999999999999</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.243</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.794</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>19.605</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>14.205</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.893</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>19.279</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>10.957</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.563</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.697</v>
+        <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.759</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>8.683999999999999</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.881</v>
+        <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>7.143</v>
+        <v>0</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>9.409000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>6.779</v>
+        <v>0</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.556</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.752</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>101.319</v>
+        <v>0</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>19.6</v>
+        <v>0</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>6.594</v>
+        <v>0</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>12.192</v>
+        <v>0</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.907</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.798</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>11.548</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>5.824</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.505</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.107</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.566000000000001</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.095</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>16.882</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.332</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>8.242000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45062.51388888889</v>
+        <v>44781.72222222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>13.243</v>
+        <v>0</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>9.782</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.532</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>29.249</v>
+        <v>0</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>23.143</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>9.823</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>38.059</v>
+        <v>0</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>16.205</v>
+        <v>0</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.239</v>
+        <v>0</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>9.960000000000001</v>
+        <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>11.68</v>
+        <v>0</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>12.609</v>
+        <v>0</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.695</v>
+        <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>10.527</v>
+        <v>0</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>14.654</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>9.276999999999999</v>
+        <v>0</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.786</v>
+        <v>0</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.679</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>152.897</v>
+        <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>29.394</v>
+        <v>0</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>9.717000000000001</v>
+        <v>0</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>19.332</v>
+        <v>0</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>10.314</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.333</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>20.027</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>8.583</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>7.766</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>9.028</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>12.427</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.973</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>34.826</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.281</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>12.148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45062.52083333334</v>
+        <v>44781.72916666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>20.019</v>
+        <v>0.372</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>14.94</v>
+        <v>0.368</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.372</v>
+        <v>0.356</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>43.896</v>
+        <v>0.648</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>35.603</v>
+        <v>0.649</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>15.333</v>
+        <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>59.994</v>
+        <v>0.448</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>24.358</v>
+        <v>0.368</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>10.983</v>
+        <v>0.346</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>15.71</v>
+        <v>0.364</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>17.585</v>
+        <v>0.377</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>18.78</v>
+        <v>0.23</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.285</v>
+        <v>0.037</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>15.79</v>
+        <v>0.275</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>22.306</v>
+        <v>0.41</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>13.475</v>
+        <v>0.341</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.61</v>
+        <v>0.254</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.794</v>
+        <v>0.184</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>233.028</v>
+        <v>0</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>44.135</v>
+        <v>0.521</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>14.575</v>
+        <v>0.269</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>29.502</v>
+        <v>0.445</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>15.571</v>
+        <v>0.289</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.046</v>
+        <v>0.172</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>30.192</v>
+        <v>0.347</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>12.874</v>
+        <v>0.259</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>11.464</v>
+        <v>0.39</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>13.435</v>
+        <v>0.381</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>18.564</v>
+        <v>0.378</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.644</v>
+        <v>0.186</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>54.67</v>
+        <v>0.37</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>8.125999999999999</v>
+        <v>0.265</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>18.222</v>
+        <v>0.274</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45062.52777777778</v>
+        <v>44781.73611111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.83</v>
+        <v>0.393</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.356</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.278</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.09</v>
+        <v>0.723</v>
       </c>
       <c r="F5" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>0.759</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0.376</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>0.382</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>0.289</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.159</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>0.6929999999999999</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.277</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.317</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>0.497</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>0.379</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>0.402</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>0.699</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>0.262</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>0.312</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44781.74304398148</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>23.77</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>19.81</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>26.07</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>8.57</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>124.71</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>23.64</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>16.12</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>8.52</v>
+      </c>
+      <c r="Y6" s="4" t="n">
         <v>1.22</v>
       </c>
-      <c r="G5" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>11.42</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>11.21</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>0.89</v>
+      <c r="Z6" s="4" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>23.18</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>9.880000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_381.xlsx
+++ b/DATA_goal/Junction_Flooding_381.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.71527777778</v>
+        <v>45062.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>8.821999999999999</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>6.243</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>2.794</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>19.605</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>14.205</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>5.893</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>19.279</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>10.957</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>4.563</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>5.697</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>7.759</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>8.683999999999999</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>2.881</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>7.143</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>9.409000000000001</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>6.779</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>1.556</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>0.752</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>101.319</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>19.6</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>6.594</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>12.192</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>6.907</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>0.798</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>11.548</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>5.824</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>5.505</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>6.107</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>8.566000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>2.095</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>16.882</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>3.332</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>8.242000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.72222222222</v>
+        <v>45062.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0</v>
+        <v>13.243</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0</v>
+        <v>9.782</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>1.532</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0</v>
+        <v>29.249</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0</v>
+        <v>23.143</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0</v>
+        <v>9.823</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0</v>
+        <v>38.059</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0</v>
+        <v>16.205</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0</v>
+        <v>7.239</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0</v>
+        <v>11.68</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0</v>
+        <v>12.609</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0</v>
+        <v>3.695</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0</v>
+        <v>10.527</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0</v>
+        <v>14.654</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0</v>
+        <v>9.276999999999999</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>0.786</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.679</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0</v>
+        <v>152.897</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0</v>
+        <v>29.394</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0</v>
+        <v>9.717000000000001</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0</v>
+        <v>19.332</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0</v>
+        <v>10.314</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0</v>
+        <v>1.333</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0</v>
+        <v>20.027</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0</v>
+        <v>8.583</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0</v>
+        <v>7.766</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0</v>
+        <v>9.028</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0</v>
+        <v>12.427</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>0.973</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0</v>
+        <v>34.826</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0</v>
+        <v>5.281</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0</v>
+        <v>12.148</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.72916666666</v>
+        <v>45062.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.372</v>
+        <v>20.019</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.368</v>
+        <v>14.94</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.356</v>
+        <v>1.372</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.648</v>
+        <v>43.896</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.649</v>
+        <v>35.603</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0</v>
+        <v>15.333</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0.448</v>
+        <v>59.994</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.368</v>
+        <v>24.358</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.346</v>
+        <v>10.983</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.364</v>
+        <v>15.71</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.377</v>
+        <v>17.585</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.23</v>
+        <v>18.78</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.037</v>
+        <v>5.285</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.275</v>
+        <v>15.79</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.41</v>
+        <v>22.306</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.341</v>
+        <v>13.475</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.254</v>
+        <v>0.61</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.184</v>
+        <v>0.794</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0</v>
+        <v>233.028</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.521</v>
+        <v>44.135</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.269</v>
+        <v>14.575</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.445</v>
+        <v>29.502</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.289</v>
+        <v>15.571</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.172</v>
+        <v>2.046</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.347</v>
+        <v>30.192</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.259</v>
+        <v>12.874</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.39</v>
+        <v>11.464</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.381</v>
+        <v>13.435</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.378</v>
+        <v>18.564</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.186</v>
+        <v>0.644</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0.37</v>
+        <v>54.67</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.265</v>
+        <v>8.125999999999999</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.274</v>
+        <v>18.222</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.73611111111</v>
+        <v>45062.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.393</v>
+        <v>0.83</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.356</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.278</v>
+        <v>0.55</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.723</v>
+        <v>2.09</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.7</v>
+        <v>1.22</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>0.759</v>
+        <v>11.42</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.424</v>
+        <v>1.1</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.343</v>
+        <v>0.77</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.376</v>
+        <v>0.25</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.382</v>
+        <v>0.82</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.174</v>
+        <v>1.01</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.289</v>
+        <v>0.75</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.475</v>
+        <v>1.13</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.339</v>
+        <v>0.93</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.205</v>
+        <v>0.34</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.159</v>
+        <v>0.18</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>0</v>
+        <v>4.31</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.6929999999999999</v>
+        <v>2.76</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.277</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.591</v>
+        <v>1.84</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.317</v>
+        <v>0.85</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.148</v>
+        <v>0.08</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.497</v>
+        <v>5.5</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.267</v>
+        <v>0.61</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.39</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.379</v>
+        <v>0.75</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.402</v>
+        <v>0.91</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.144</v>
+        <v>0.48</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>0.699</v>
+        <v>11.21</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.262</v>
+        <v>0.25</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.312</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.74304398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>8.289999999999999</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>23.77</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>19.81</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>26.07</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>13.25</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>8.970000000000001</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>10.05</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>8.57</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>12.27</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>124.71</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>23.64</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>16.12</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>8.52</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>13.64</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>23.18</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>9.880000000000001</v>
+        <v>0.89</v>
       </c>
     </row>
   </sheetData>
